--- a/First Semester/[Use] Main File (Run Fingerprint)/Result & Visual/CH 2024-03-15/All_Tb.xlsx
+++ b/First Semester/[Use] Main File (Run Fingerprint)/Result & Visual/CH 2024-03-15/All_Tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kan\Documents\GitHub\SMILE_to_Feature\First Semester\[Use] Main File (Run Fingerprint)\Result &amp; Visual\CH 2024-03-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F42EA-A0FC-4EED-B2CD-F862431C91A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193CABD5-772A-4D18-AD3F-4C3075CC621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="11">
   <si>
     <t>KNN</t>
   </si>
@@ -435,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2927,15 +2927,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB028C5-BE38-4EA0-9836-3EFA5BE77144}">
-  <dimension ref="B1:H102"/>
+  <dimension ref="B1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2952,8 +2952,12 @@
         <v>9</v>
       </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>301.35000000000002</v>
       </c>
@@ -2970,8 +2974,14 @@
       <c r="H3">
         <v>429.09323000000001</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="L3">
+        <v>429.15</v>
+      </c>
+      <c r="M3">
+        <v>429.09323000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>309.05</v>
       </c>
@@ -2987,8 +2997,14 @@
       <c r="H4">
         <v>349.12450000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="L4">
+        <v>345.65</v>
+      </c>
+      <c r="M4">
+        <v>349.12450000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>322.45</v>
       </c>
@@ -3004,8 +3020,14 @@
       <c r="H5">
         <v>445.37308000000002</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="L5">
+        <v>447.15</v>
+      </c>
+      <c r="M5">
+        <v>445.37308000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>315.35000000000002</v>
       </c>
@@ -3021,8 +3043,14 @@
       <c r="H6">
         <v>385.90244000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="L6">
+        <v>386.35</v>
+      </c>
+      <c r="M6">
+        <v>385.90244000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>341.85</v>
       </c>
@@ -3038,8 +3066,14 @@
       <c r="H7">
         <v>347.59032999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="L7">
+        <v>353.15</v>
+      </c>
+      <c r="M7">
+        <v>347.59032999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>329.95</v>
       </c>
@@ -3055,8 +3089,14 @@
       <c r="H8">
         <v>405.25497000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="L8">
+        <v>404.55</v>
+      </c>
+      <c r="M8">
+        <v>405.25497000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>344.95</v>
       </c>
@@ -3072,8 +3112,14 @@
       <c r="H9">
         <v>309.26382000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="L9">
+        <v>309.14999999999998</v>
+      </c>
+      <c r="M9">
+        <v>309.26382000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>353.55</v>
       </c>
@@ -3089,8 +3135,14 @@
       <c r="H10">
         <v>333.83913999999999</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="L10">
+        <v>336.35</v>
+      </c>
+      <c r="M10">
+        <v>333.83913999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>364.15</v>
       </c>
@@ -3106,8 +3158,14 @@
       <c r="H11">
         <v>416.00076000000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="L11">
+        <v>416.15</v>
+      </c>
+      <c r="M11">
+        <v>416.00076000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>365.05</v>
       </c>
@@ -3123,8 +3181,14 @@
       <c r="H12">
         <v>314.65841999999998</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="L12">
+        <v>313.25</v>
+      </c>
+      <c r="M12">
+        <v>314.65841999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>391.55</v>
       </c>
@@ -3140,8 +3204,14 @@
       <c r="H13">
         <v>389.80585000000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="L13">
+        <v>391.35</v>
+      </c>
+      <c r="M13">
+        <v>389.80585000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>378.45</v>
       </c>
@@ -3157,8 +3227,14 @@
       <c r="H14">
         <v>468.7004</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="L14">
+        <v>469.15</v>
+      </c>
+      <c r="M14">
+        <v>468.7004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>383.15</v>
       </c>
@@ -3174,8 +3250,14 @@
       <c r="H15">
         <v>411.14071999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="L15">
+        <v>412.25</v>
+      </c>
+      <c r="M15">
+        <v>411.14071999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>388.75</v>
       </c>
@@ -3191,8 +3273,14 @@
       <c r="H16">
         <v>402.72635000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="L16">
+        <v>401.15</v>
+      </c>
+      <c r="M16">
+        <v>402.72635000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>391.35</v>
       </c>
@@ -3208,8 +3296,14 @@
       <c r="H17">
         <v>322.27014000000003</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="L17">
+        <v>327.14999999999998</v>
+      </c>
+      <c r="M17">
+        <v>322.27014000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>391.15</v>
       </c>
@@ -3225,8 +3319,14 @@
       <c r="H18">
         <v>445.76589999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="L18">
+        <v>438.15</v>
+      </c>
+      <c r="M18">
+        <v>445.76589999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>387.15</v>
       </c>
@@ -3242,8 +3342,14 @@
       <c r="H19">
         <v>340.72888</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="L19">
+        <v>355.35</v>
+      </c>
+      <c r="M19">
+        <v>340.72888</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20">
         <v>394.15</v>
       </c>
@@ -3259,8 +3365,14 @@
       <c r="H20">
         <v>437.31700000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="L20">
+        <v>439.15</v>
+      </c>
+      <c r="M20">
+        <v>437.31700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21">
         <v>394.75</v>
       </c>
@@ -3276,8 +3388,14 @@
       <c r="H21">
         <v>408.6934</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="L21">
+        <v>409.85</v>
+      </c>
+      <c r="M21">
+        <v>408.6934</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22">
         <v>397.65</v>
       </c>
@@ -3293,8 +3411,14 @@
       <c r="H22">
         <v>432.52866</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="L22">
+        <v>429.35</v>
+      </c>
+      <c r="M22">
+        <v>432.52866</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23">
         <v>405.05</v>
       </c>
@@ -3310,8 +3434,14 @@
       <c r="H23">
         <v>420.20537999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="L23">
+        <v>422.15</v>
+      </c>
+      <c r="M23">
+        <v>420.20537999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24">
         <v>413.35</v>
       </c>
@@ -3327,8 +3457,14 @@
       <c r="H24">
         <v>294.82303000000002</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="L24">
+        <v>293.75</v>
+      </c>
+      <c r="M24">
+        <v>294.82303000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25">
         <v>404.55</v>
       </c>
@@ -3344,8 +3480,14 @@
       <c r="H25">
         <v>433.97726</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="L25">
+        <v>434.35</v>
+      </c>
+      <c r="M25">
+        <v>433.97726</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26">
         <v>406.95</v>
       </c>
@@ -3361,8 +3503,14 @@
       <c r="H26">
         <v>509.90129999999999</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="L26">
+        <v>511.15</v>
+      </c>
+      <c r="M26">
+        <v>509.90129999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27">
         <v>409.15</v>
       </c>
@@ -3378,8 +3526,14 @@
       <c r="H27">
         <v>184.12859</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="L27">
+        <v>169.45</v>
+      </c>
+      <c r="M27">
+        <v>184.12859</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28">
         <v>416.35</v>
       </c>
@@ -3395,8 +3549,14 @@
       <c r="H28">
         <v>357.11765000000003</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="L28">
+        <v>354.75</v>
+      </c>
+      <c r="M28">
+        <v>357.11765000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29">
         <v>417.35</v>
       </c>
@@ -3412,8 +3572,14 @@
       <c r="H29">
         <v>275.09057999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="L29">
+        <v>268.75</v>
+      </c>
+      <c r="M29">
+        <v>275.09057999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30">
         <v>418.35</v>
       </c>
@@ -3429,8 +3595,14 @@
       <c r="H30">
         <v>341.02755999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="L30">
+        <v>338.85</v>
+      </c>
+      <c r="M30">
+        <v>341.02755999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31">
         <v>425.75</v>
       </c>
@@ -3446,8 +3618,14 @@
       <c r="H31">
         <v>426.58114999999998</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="L31">
+        <v>435.15</v>
+      </c>
+      <c r="M31">
+        <v>426.58114999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32">
         <v>429.15</v>
       </c>
@@ -3463,8 +3641,14 @@
       <c r="H32">
         <v>433.75454999999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="L32">
+        <v>434.25</v>
+      </c>
+      <c r="M32">
+        <v>433.75454999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33">
         <v>426.95</v>
       </c>
@@ -3480,8 +3664,14 @@
       <c r="H33">
         <v>376.32947000000001</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="L33">
+        <v>378.65</v>
+      </c>
+      <c r="M33">
+        <v>376.32947000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34">
         <v>430.25</v>
       </c>
@@ -3497,8 +3687,14 @@
       <c r="H34">
         <v>385.22057999999998</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="L34">
+        <v>384.15</v>
+      </c>
+      <c r="M34">
+        <v>385.22057999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35">
         <v>421.45</v>
       </c>
@@ -3514,8 +3710,14 @@
       <c r="H35">
         <v>384.46686</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="L35">
+        <v>383.45</v>
+      </c>
+      <c r="M35">
+        <v>384.46686</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36">
         <v>429.15</v>
       </c>
@@ -3531,8 +3733,14 @@
       <c r="H36">
         <v>467.83154000000002</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="L36">
+        <v>467.85</v>
+      </c>
+      <c r="M36">
+        <v>467.83154000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37">
         <v>429.25</v>
       </c>
@@ -3548,8 +3756,14 @@
       <c r="H37">
         <v>394.23680000000002</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="L37">
+        <v>394.15</v>
+      </c>
+      <c r="M37">
+        <v>394.23680000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38">
         <v>440.15</v>
       </c>
@@ -3565,8 +3779,14 @@
       <c r="H38">
         <v>466.00452000000001</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="L38">
+        <v>465.15</v>
+      </c>
+      <c r="M38">
+        <v>466.00452000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39">
         <v>430.65</v>
       </c>
@@ -3582,8 +3802,14 @@
       <c r="H39">
         <v>435.29775999999998</v>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="L39">
+        <v>436.55</v>
+      </c>
+      <c r="M39">
+        <v>435.29775999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40">
         <v>431.65</v>
       </c>
@@ -3599,8 +3825,14 @@
       <c r="H40">
         <v>397.76602000000003</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="L40">
+        <v>398.75</v>
+      </c>
+      <c r="M40">
+        <v>397.76602000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41">
         <v>441.05</v>
       </c>
@@ -3616,8 +3848,14 @@
       <c r="H41">
         <v>383.57812000000001</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="L41">
+        <v>385.35</v>
+      </c>
+      <c r="M41">
+        <v>383.57812000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42">
         <v>454.05</v>
       </c>
@@ -3633,8 +3871,14 @@
       <c r="H42">
         <v>344.61295000000001</v>
       </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="L42">
+        <v>341.85</v>
+      </c>
+      <c r="M42">
+        <v>344.61295000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43">
         <v>441.65</v>
       </c>
@@ -3650,8 +3894,14 @@
       <c r="H43">
         <v>432.89422999999999</v>
       </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="L43">
+        <v>432.85</v>
+      </c>
+      <c r="M43">
+        <v>432.89422999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44">
         <v>468.95</v>
       </c>
@@ -3667,8 +3917,14 @@
       <c r="H44">
         <v>322.1617</v>
       </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="L44">
+        <v>314.35000000000002</v>
+      </c>
+      <c r="M44">
+        <v>322.1617</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45">
         <v>462.45</v>
       </c>
@@ -3684,8 +3940,14 @@
       <c r="H45">
         <v>491.20702999999997</v>
       </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="L45">
+        <v>482.15</v>
+      </c>
+      <c r="M45">
+        <v>491.20702999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46">
         <v>469.65</v>
       </c>
@@ -3701,8 +3963,14 @@
       <c r="H46">
         <v>449.80536000000001</v>
       </c>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="L46">
+        <v>450.15</v>
+      </c>
+      <c r="M46">
+        <v>449.80536000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47">
         <v>488.25</v>
       </c>
@@ -3718,8 +3986,14 @@
       <c r="H47">
         <v>360.09769999999997</v>
       </c>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="L47">
+        <v>360.75</v>
+      </c>
+      <c r="M47">
+        <v>360.09769999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48">
         <v>520.15</v>
       </c>
@@ -3735,8 +4009,14 @@
       <c r="H48">
         <v>439.01920000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="L48">
+        <v>439.45</v>
+      </c>
+      <c r="M48">
+        <v>439.01920000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
       <c r="B49">
         <v>293.25</v>
       </c>
@@ -3752,8 +4032,14 @@
       <c r="H49">
         <v>345.75765999999999</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="L49">
+        <v>345.15</v>
+      </c>
+      <c r="M49">
+        <v>345.75765999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50">
         <v>310.05</v>
       </c>
@@ -3769,8 +4055,14 @@
       <c r="H50">
         <v>387.10320000000002</v>
       </c>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="L50">
+        <v>382.65</v>
+      </c>
+      <c r="M50">
+        <v>387.10320000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51">
         <v>315.14999999999998</v>
       </c>
@@ -3786,8 +4078,14 @@
       <c r="H51">
         <v>372.8494</v>
       </c>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="L51">
+        <v>375.65</v>
+      </c>
+      <c r="M51">
+        <v>372.8494</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52">
         <v>318.05</v>
       </c>
@@ -3803,8 +4101,14 @@
       <c r="H52">
         <v>393.06063999999998</v>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="L52">
+        <v>392.45</v>
+      </c>
+      <c r="M52">
+        <v>393.06063999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53">
         <v>321.35000000000002</v>
       </c>
@@ -3820,8 +4124,14 @@
       <c r="H53">
         <v>377.20575000000002</v>
       </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="L53">
+        <v>380.05</v>
+      </c>
+      <c r="M53">
+        <v>377.20575000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54">
         <v>310.14999999999998</v>
       </c>
@@ -3837,8 +4147,14 @@
       <c r="H54">
         <v>231.16139000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="L54">
+        <v>231.05</v>
+      </c>
+      <c r="M54">
+        <v>231.16139000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55">
         <v>329.45</v>
       </c>
@@ -3854,8 +4170,14 @@
       <c r="H55">
         <v>451.47859999999997</v>
       </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="L55">
+        <v>447.25</v>
+      </c>
+      <c r="M55">
+        <v>451.47859999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56">
         <v>337.85</v>
       </c>
@@ -3871,8 +4193,14 @@
       <c r="H56">
         <v>431.00081999999998</v>
       </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="L56">
+        <v>429.25</v>
+      </c>
+      <c r="M56">
+        <v>431.00081999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57">
         <v>341.95</v>
       </c>
@@ -3888,8 +4216,14 @@
       <c r="H57">
         <v>437.4751</v>
       </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="L57">
+        <v>439.15</v>
+      </c>
+      <c r="M57">
+        <v>437.4751</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58">
         <v>341.05</v>
       </c>
@@ -3905,8 +4239,14 @@
       <c r="H58">
         <v>444.26600000000002</v>
       </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="L58">
+        <v>427.15</v>
+      </c>
+      <c r="M58">
+        <v>444.26600000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59">
         <v>343.15</v>
       </c>
@@ -3914,7 +4254,7 @@
         <v>340.49343386893116</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:13">
       <c r="B60">
         <v>348.15</v>
       </c>
@@ -3922,7 +4262,7 @@
         <v>340.49343386893116</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:13">
       <c r="B61">
         <v>338.15</v>
       </c>
@@ -3930,7 +4270,7 @@
         <v>344.73943386893114</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:13">
       <c r="B62">
         <v>339.45</v>
       </c>
@@ -3938,7 +4278,7 @@
         <v>344.73943386893114</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:13">
       <c r="B63">
         <v>346.25</v>
       </c>
@@ -3946,7 +4286,7 @@
         <v>344.73943386893114</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:13">
       <c r="B64">
         <v>346.65</v>
       </c>
@@ -4267,7 +4607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B488FC0-8B23-43D7-8AE6-F8CBB03B4E9A}">
   <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
